--- a/SoccerArb/TeamNames/combined_data.xlsx
+++ b/SoccerArb/TeamNames/combined_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="383">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -154,1000 +154,1003 @@
     <t xml:space="preserve">Queen's Park</t>
   </si>
   <si>
+    <t xml:space="preserve">Queen Of South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Fife</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coventry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morecambe FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elgin City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huddersfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherwell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelty Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfar Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hull City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawley Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Johnstone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cove Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrewsbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillingham FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilmarnock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrieonians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenhousemuir FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevenage FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrogate Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberdeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayr United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stranraer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leicester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Mirren FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbroath FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spartans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middlesbrough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlisle United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansfield Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dundee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millwall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleetwood Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimsby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livingston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bristol Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Wimbledon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plymouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swindon Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyton Orient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colchester United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottingham Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northampton Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotherham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradford City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheltenham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doncaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolverhampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoke City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burton Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrexham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunderland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wycombe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newport County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Vale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notts County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bromwich Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walsall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alloa Athletic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackburn Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolton Wanderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenock Morton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkirk FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clyde FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exeter City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibernian FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunfermline Athletic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamilton Academical FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumbarton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart of Midlothian FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens Park FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen of The South FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Fife FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coventry City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross County FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling Albion FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elgin City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherwell FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raith Rovers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelty Hearts FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfar Athletic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Johnstone FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness Caledonian Thistle FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cove Rangers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterhead FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrewsbury Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilmarnock FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrieonians FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montrose FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayr United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stranraer FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe Alexandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spartans FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middlesbrough FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dundee FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millwall FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimsby Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livingston FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Wimbledon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plymouth Argyle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preston North End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyton Orient London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens Park Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranmere Rovers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotherham United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheltenham Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doncaster Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockport County FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrexham AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunderland AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Green Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bromwich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wigan Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walsall FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alloa Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonnyrig Rose Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accrington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK Dons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunfermline Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumbarton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart of Midlothian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen of the South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coventry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morecambe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raith Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Johnstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness CT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cove Rangers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillingham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenhousemuir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevenage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Mirren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbroath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlisle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleetwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swindon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Brom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walsall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coventry City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huddersfield Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton Athletic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Johnstone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leicester City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Mirren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luton Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wimbledon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranmere Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockport County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea City  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Bournemouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibernian Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brentford FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighton &amp; Hove Albion FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnley FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelty Hearts F.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelsea FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC St Johnstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness Caledonian Thistle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberdeen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Dundee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preston North End FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southampton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watford FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutton Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dundee Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonnyrigg Rose Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow A.F.C. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrewsbury </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Edinburgh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe Alexandra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbroth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man Utd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottm Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheff Utd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradford City AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheff Wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolverhampton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wycombe Wanderers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Glasgow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasgow Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Academical FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen of The South</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Johnstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevenage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayr Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlisle Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colchester Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield Weds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salford City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleetwood Town </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bournemoth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibernian Hibs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart of Midlothian Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen`s Park</t>
+  </si>
+  <si>
     <t xml:space="preserve">Queen of South</t>
   </si>
   <si>
-    <t xml:space="preserve">East Fife</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coventry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morecambe FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick Thistle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stirling Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elgin City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huddersfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherwell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelty Hearts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfar Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chelsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hull City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterborough </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crawley Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Johnstone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cove Rangers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipswich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrewsbury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gillingham FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilmarnock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airdrieonians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montrose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenhousemuir FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevenage FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrogate Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aberdeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayr United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stranraer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leicester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Mirren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbroath FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spartans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liverpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middlesbrough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlisle United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansfield Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dundee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millwall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleetwood Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grimsby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livingston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwich </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bristol Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC Wimbledon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plymouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swindon Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newcastle United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyton Orient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchester United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nottingham Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northampton Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotherham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradford City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tottenham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheltenham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doncaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Ham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolverhampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoke City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burton Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrexham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunderland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wycombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newport County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Vale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notts County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Bromwich Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walsall </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birmingham City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alloa Athletic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackburn Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolton Wanderers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenock Morton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falkirk FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clyde FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exeter City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibernian FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunfermline Athletic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamilton Academical FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dumbarton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiff City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart of Midlothian FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens Park FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen of The South FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Fife FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coventry City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross County FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick Thistle FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stirling Albion FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elgin City FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherwell FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raith Rovers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelty Hearts FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfar Athletic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterborough United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Johnstone FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness Caledonian Thistle FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cove Rangers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterhead FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipswich Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrewsbury Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilmarnock FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airdrieonians FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montrose FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayr United FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh City FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stranraer FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe Alexandra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Mirren FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spartans FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middlesbrough FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dundee FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millwall FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grimsby Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livingston FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC Wimbledon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plymouth Argyle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newcastle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preston North End</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyton Orient London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nottingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens Park Rangers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranmere Rovers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotherham United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheltenham Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doncaster Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockport County FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrexham AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunderland AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Green Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Bromwich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wigan Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walsall FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accrington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK Dons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dumbarton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart of Midlothian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coventry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morecambe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick Thistle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elgin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raith Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crawley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Johnstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness Caledonian Thistle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gillingham </t>
+    <t xml:space="preserve">Kilmarnock Killie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrogate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dundee Dark Blues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens Park Rangers QPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkirk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exeter City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Academical </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Queen of The South </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenhousemuir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barnsley FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bournemouth AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackpool FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge Utd FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfar Athletic </t>
   </si>
   <si>
     <t xml:space="preserve">Airdrie Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenhousemuir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevenage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbroath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlisle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleetwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swindon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Brom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walsall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alloa Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunfermline Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiff City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen of the South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coventry City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huddersfield Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton Athletic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterborough United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Johnstone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leicester City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Mirren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luton Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwich City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Ham United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea City  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenal FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rangers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC Bournemouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibernian Edinburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brentford FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighton &amp; Hove Albion FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnley FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelty Hearts F.c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chelsea FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC St Johnstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aberdeen FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulham FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liverpool FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC Dundee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwich City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranmere Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southampton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockport County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watford FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sutton Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dundee Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonnyrigg Rose Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow A.F.C. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness CT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrewsbury </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gillingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC Edinburgh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe Alexandra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbroth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man Utd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nottm Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheff Utd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradford City AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheff Wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolverhampton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wycombe Wanderers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wigan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic Glasgow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasgow Rangers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton Academical FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen of The South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterborough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Johnstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airdrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevenage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayr Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlisle Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wimbledon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newcastle Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchester Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield Weds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salford City FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleetwood Town </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bournemoth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibernian Hibs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart of Midlothian Hearts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen`s Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilmarnock Killie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrogate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dundee Dark Blues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens Park Rangers QPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birmingham City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falkirk </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exeter City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton Academical </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Queen of The South </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenhousemuir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barnsley FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bournemouth AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackpool FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge Utd FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfar Athletic </t>
   </si>
   <si>
     <t xml:space="preserve">Crewe Alexandra FC</t>
@@ -1190,7 +1193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1212,12 +1215,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1267,7 +1264,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1380,10 +1377,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1403,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -1435,7 +1432,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
@@ -1458,13 +1455,13 @@
         <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>332</v>
@@ -1487,13 +1484,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -1510,19 +1507,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
@@ -1551,7 +1548,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>63</v>
@@ -1574,7 +1571,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -1586,7 +1583,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1626,7 +1623,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>248</v>
@@ -1635,13 +1632,13 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,13 +1652,13 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,16 +1666,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -1692,7 +1689,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -1706,13 +1703,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -1726,7 +1723,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -1743,13 +1740,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,10 +1754,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -1783,7 +1780,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1800,7 +1797,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,7 +1805,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -1828,10 +1825,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1839,7 +1836,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -1867,13 +1864,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>219</v>
-      </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -1960,7 +1957,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -2000,7 +1997,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -2012,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>30</v>
@@ -2041,13 +2038,13 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>353</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>39</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>158</v>
@@ -2058,7 +2055,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>159</v>
@@ -2067,13 +2064,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -2090,19 +2087,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
@@ -2154,7 +2151,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>354</v>
@@ -2206,7 +2203,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>83</v>
@@ -2215,13 +2212,13 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>356</v>
@@ -2249,7 +2246,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
@@ -2272,7 +2269,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -2286,16 +2283,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,13 +2303,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2326,7 +2323,7 @@
         <v>357</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>113</v>
@@ -2337,10 +2334,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -2354,7 +2351,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
@@ -2371,7 +2368,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -2388,7 +2385,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -2419,7 +2416,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -2450,10 +2447,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2539,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -2597,7 +2594,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>361</v>
@@ -2623,10 +2620,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>362</v>
@@ -2640,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>159</v>
@@ -2649,13 +2646,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -2672,19 +2669,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
@@ -2710,7 +2707,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>363</v>
@@ -2736,7 +2733,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -2774,7 +2771,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>80</v>
@@ -2788,7 +2785,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>248</v>
@@ -2797,10 +2794,10 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -2831,16 +2828,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -2854,13 +2851,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,13 +2865,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -2888,7 +2885,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -2905,13 +2902,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2919,10 +2916,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -2936,16 +2933,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -2962,7 +2959,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2970,7 +2967,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -2990,10 +2987,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +2998,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -3032,10 +3029,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>142</v>
@@ -3115,10 +3112,10 @@
         <v>365</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
@@ -3147,7 +3144,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -3179,7 +3176,7 @@
         <v>150</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
@@ -3193,10 +3190,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>367</v>
@@ -3205,7 +3202,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>156</v>
@@ -3222,7 +3219,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>159</v>
@@ -3237,7 +3234,7 @@
         <v>161</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -3251,10 +3248,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>165</v>
@@ -3269,7 +3266,7 @@
         <v>168</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>370</v>
@@ -3280,7 +3277,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>58</v>
@@ -3295,7 +3292,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>174</v>
@@ -3318,13 +3315,13 @@
         <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>178</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>243</v>
+        <v>371</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>180</v>
@@ -3350,7 +3347,7 @@
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>78</v>
@@ -3367,25 +3364,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>184</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,10 +3390,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>339</v>
@@ -3405,7 +3402,7 @@
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,19 +3410,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3436,13 +3433,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,10 +3450,10 @@
         <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -3470,7 +3467,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -3487,13 +3484,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,13 +3498,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -3518,16 +3515,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3535,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -3544,7 +3541,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3552,7 +3549,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -3561,7 +3558,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3569,13 +3566,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3583,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -3600,7 +3597,7 @@
         <v>136</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>138</v>
@@ -3614,10 +3611,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3706,7 +3703,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -3761,7 +3758,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>361</v>
@@ -3787,10 +3784,10 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>362</v>
@@ -3804,7 +3801,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>159</v>
@@ -3813,13 +3810,13 @@
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -3836,19 +3833,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
@@ -3874,7 +3871,7 @@
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>363</v>
@@ -3900,7 +3897,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -3938,7 +3935,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>80</v>
@@ -3952,7 +3949,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>248</v>
@@ -3961,10 +3958,10 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -3995,16 +3992,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -4018,13 +4015,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,13 +4029,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -4052,7 +4049,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -4069,13 +4066,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,10 +4080,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -4100,16 +4097,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -4126,7 +4123,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,7 +4131,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -4154,10 +4151,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4165,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -4196,10 +4193,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4348,16 +4345,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
@@ -4371,16 +4368,16 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4417,7 +4414,7 @@
         <v>67</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -4451,7 +4448,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>83</v>
@@ -4460,7 +4457,7 @@
         <v>318</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4474,10 +4471,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>92</v>
@@ -4488,7 +4485,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
@@ -4511,13 +4508,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,16 +4522,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4562,13 +4559,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,7 +4573,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>115</v>
@@ -4593,16 +4590,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,7 +4607,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -4627,7 +4624,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -4650,7 +4647,7 @@
         <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,7 +4655,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -4686,13 +4683,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -4772,16 +4769,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>328</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -4801,7 +4798,7 @@
         <v>145</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
@@ -4821,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -4850,10 +4847,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -4865,7 +4862,7 @@
         <v>155</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>332</v>
@@ -4908,7 +4905,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>50</v>
@@ -4920,10 +4917,10 @@
         <v>166</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>169</v>
@@ -4946,13 +4943,13 @@
         <v>171</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>334</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>174</v>
@@ -4966,7 +4963,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>176</v>
@@ -5036,13 +5033,13 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,7 +5047,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>89</v>
@@ -5070,16 +5067,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -5090,10 +5087,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -5107,16 +5104,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="E15" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5127,13 +5124,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="E16" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5147,10 +5144,10 @@
         <v>111</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5161,7 +5158,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -5184,7 +5181,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5189,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -5201,7 +5198,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,7 +5206,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -5218,7 +5215,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5226,13 +5223,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,7 +5237,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -5254,7 +5251,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>137</v>
@@ -5268,13 +5265,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5295,8 +5292,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6200,13 +6197,13 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6217,7 +6214,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>90</v>
@@ -6226,7 +6223,7 @@
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,16 +6234,16 @@
         <v>93</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6254,16 +6251,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6271,13 +6268,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -6288,13 +6285,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C16" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="D16" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>109</v>
@@ -6305,16 +6302,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6322,13 +6319,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="D18" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -6345,10 +6342,10 @@
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6365,7 +6362,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,16 +6370,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>212</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6390,13 +6387,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6404,7 +6401,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -6432,13 +6429,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -6459,8 +6456,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6527,10 +6524,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>15</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6547,13 +6544,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>23</v>
@@ -6582,13 +6579,13 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6599,7 +6596,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -6608,13 +6605,13 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>40</v>
@@ -6628,25 +6625,25 @@
         <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>232</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6660,22 +6657,22 @@
         <v>50</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>237</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6686,22 +6683,22 @@
         <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>64</v>
@@ -6721,19 +6718,19 @@
         <v>67</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6744,10 +6741,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
@@ -6756,7 +6753,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>247</v>
+        <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>79</v>
@@ -6782,10 +6779,10 @@
         <v>249</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -6802,10 +6799,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>92</v>
@@ -6822,7 +6819,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>96</v>
@@ -6836,10 +6833,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -6853,16 +6850,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6870,7 +6867,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>107</v>
@@ -6879,7 +6876,7 @@
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6893,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>113</v>
@@ -6904,7 +6901,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>115</v>
@@ -6913,7 +6910,7 @@
         <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6921,7 +6918,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
@@ -6944,7 +6941,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>125</v>
@@ -6955,13 +6952,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>212</v>
-      </c>
       <c r="D21" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>129</v>
@@ -6978,7 +6975,7 @@
         <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6986,10 +6983,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>135</v>
@@ -7014,13 +7011,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7041,8 +7038,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7108,7 +7105,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -7163,7 +7160,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
@@ -7180,7 +7177,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -7189,13 +7186,13 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>40</v>
@@ -7206,16 +7203,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
@@ -7238,10 +7235,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>52</v>
@@ -7250,7 +7247,7 @@
         <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
@@ -7270,13 +7267,13 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>62</v>
@@ -7302,7 +7299,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -7314,7 +7311,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7328,7 +7325,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
@@ -7340,7 +7337,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>80</v>
@@ -7354,19 +7351,19 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>84</v>
+        <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -7397,7 +7394,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
@@ -7406,7 +7403,7 @@
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>190</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -7420,13 +7417,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7437,7 +7434,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>280</v>
@@ -7454,7 +7451,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -7471,13 +7468,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>113</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7488,7 +7485,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -7502,16 +7499,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7519,7 +7516,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -7528,7 +7525,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7536,7 +7533,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -7556,10 +7553,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,7 +7564,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -7598,7 +7595,7 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>141</v>
@@ -7622,8 +7619,8 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7672,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>142</v>
@@ -7684,7 +7681,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
@@ -7710,7 +7707,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>146</v>
@@ -7724,7 +7721,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -7736,10 +7733,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
@@ -7750,10 +7747,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -7762,7 +7759,7 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>156</v>
@@ -7776,7 +7773,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>159</v>
@@ -7791,7 +7788,7 @@
         <v>161</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -7802,10 +7799,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>165</v>
@@ -7820,7 +7817,7 @@
         <v>168</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7828,7 +7825,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>58</v>
@@ -7840,10 +7837,10 @@
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>174</v>
@@ -7854,7 +7851,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>176</v>
@@ -7892,7 +7889,7 @@
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>78</v>
@@ -7906,10 +7903,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>184</v>
@@ -7918,7 +7915,7 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
@@ -7929,10 +7926,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>90</v>
@@ -7941,7 +7938,7 @@
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7949,19 +7946,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7972,7 +7969,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -7989,10 +7986,10 @@
         <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -8006,7 +8003,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -8023,13 +8020,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8040,10 +8037,10 @@
         <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -8054,16 +8051,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8071,16 +8068,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8088,7 +8085,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -8097,7 +8094,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8105,13 +8102,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8119,7 +8116,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -8133,7 +8130,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>137</v>
@@ -8150,10 +8147,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8225,7 +8222,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>10</v>
@@ -8234,19 +8231,19 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8260,7 +8257,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>20</v>
@@ -8298,7 +8295,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
@@ -8327,10 +8324,10 @@
         <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>268</v>
+        <v>230</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>40</v>
@@ -8347,16 +8344,16 @@
         <v>42</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -8379,13 +8376,13 @@
         <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
@@ -8402,7 +8399,7 @@
         <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>59</v>
@@ -8414,7 +8411,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>63</v>
@@ -8434,10 +8431,10 @@
         <v>176</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -8449,7 +8446,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8460,10 +8457,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
@@ -8498,7 +8495,7 @@
         <v>318</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>319</v>
@@ -8518,13 +8515,13 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8532,7 +8529,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
@@ -8552,10 +8549,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>194</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -8578,7 +8575,7 @@
         <v>104</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8586,7 +8583,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>107</v>
@@ -8595,7 +8592,7 @@
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8609,7 +8606,7 @@
         <v>111</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>113</v>
@@ -8646,7 +8643,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8660,10 +8657,10 @@
         <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8674,7 +8671,7 @@
         <v>325</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>128</v>
@@ -8702,7 +8699,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -8730,7 +8727,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>327</v>
@@ -8807,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>142</v>
@@ -8865,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -8894,10 +8891,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -8923,7 +8920,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>159</v>
@@ -8952,10 +8949,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>165</v>
@@ -8981,7 +8978,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>58</v>
@@ -9010,7 +9007,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>176</v>
@@ -9051,7 +9048,7 @@
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>181</v>
@@ -9068,10 +9065,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>184</v>
@@ -9080,13 +9077,13 @@
         <v>185</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9094,10 +9091,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>90</v>
@@ -9106,7 +9103,7 @@
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9114,19 +9111,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9137,7 +9134,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -9154,10 +9151,10 @@
         <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -9171,10 +9168,10 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D16" s="0" t="s">
         <v>200</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>201</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>109</v>
@@ -9188,13 +9185,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9205,10 +9202,10 @@
         <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D18" s="0" t="s">
         <v>206</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>207</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -9219,16 +9216,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9236,16 +9233,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9253,7 +9250,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -9262,7 +9259,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9270,13 +9267,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="E22" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9284,7 +9281,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -9298,7 +9295,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>137</v>
@@ -9315,10 +9312,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -9398,16 +9395,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>265</v>
+        <v>220</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -9491,7 +9488,7 @@
         <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>332</v>
@@ -9511,16 +9508,16 @@
         <v>159</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -9537,19 +9534,19 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>55</v>
@@ -9601,7 +9598,7 @@
         <v>177</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -9613,7 +9610,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,7 +9650,7 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>83</v>
@@ -9662,10 +9659,10 @@
         <v>249</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -9696,7 +9693,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
@@ -9705,7 +9702,7 @@
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -9719,13 +9716,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>340</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9733,13 +9730,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C15" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -9750,7 +9747,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>107</v>
@@ -9759,7 +9756,7 @@
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9784,7 +9781,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>115</v>
@@ -9804,13 +9801,13 @@
         <v>118</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="E19" s="0" t="s">
         <v>208</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9824,7 +9821,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>125</v>
@@ -9835,7 +9832,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -9858,7 +9855,7 @@
         <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9866,7 +9863,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -9894,13 +9891,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/SoccerArb/TeamNames/combined_data.xlsx
+++ b/SoccerArb/TeamNames/combined_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,16 +14,17 @@
     <sheet name="nairabet" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="22bet" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="dafabet" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="parimatch" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="betking" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="bet9ja" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="sunbet" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="default" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="melbet" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="merrybet" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="betwinner" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="ps3838" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="betway" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="bet188" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="parimatch" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="betking" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="bet9ja" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="sunbet" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="default" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="melbet" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="merrybet" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="betwinner" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="ps3838" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="betway" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2091" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2233" uniqueCount="384">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -154,447 +155,456 @@
     <t xml:space="preserve">Queen's Park</t>
   </si>
   <si>
-    <t xml:space="preserve">Queen Of South</t>
+    <t xml:space="preserve">Queen of South</t>
   </si>
   <si>
     <t xml:space="preserve">East Fife</t>
   </si>
   <si>
+    <t xml:space="preserve">Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coventry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morecambe FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elgin City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huddersfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherwell </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelty Hearts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfar Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelsea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hull City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawley Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Johnstone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cove Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrewsbury</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillingham FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilmarnock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrieonians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montrose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenhousemuir FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal Palace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevenage FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harrogate Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberdeen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayr United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stranraer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leicester City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Mirren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbroath FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spartans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middlesbrough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlisle United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansfield Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dundee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millwall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleetwood Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grimsby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livingston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bristol Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Wimbledon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manchester United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plymouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swindon Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyton Orient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colchester United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottingham Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northampton Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranmere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotherham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradford City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheltenham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doncaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolverhampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoke City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burton Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrexham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunderland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wycombe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forest Green</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newport County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Port Vale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notts County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bromwich Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walsall </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alloa Athletic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blackburn Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolton Wanderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenock Morton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falkirk FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clyde FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exeter City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibernian FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunfermline Athletic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamilton Academical FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumbarton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart of Midlothian FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens Park FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queen of The South FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Fife FC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brighton</t>
   </si>
   <si>
-    <t xml:space="preserve">Coventry </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morecambe FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick Thistle </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stirling Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elgin City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huddersfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherwell </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raith</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelty Hearts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfar Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chelsea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hull City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterborough </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crawley Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Johnstone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cove Rangers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterhead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipswich</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrewsbury</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gillingham FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilmarnock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airdrieonians</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montrose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenhousemuir FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Palace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevenage FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harrogate Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aberdeen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayr United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stranraer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulham</t>
+    <t xml:space="preserve">Coventry City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross County FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stirling Albion FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elgin City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherwell FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raith Rovers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelty Hearts FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfar Athletic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Johnstone FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness Caledonian Thistle FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cove Rangers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterhead FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ipswich Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shrewsbury Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kilmarnock FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrieonians FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montrose FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayr United FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh City FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stranraer FC</t>
   </si>
   <si>
     <t xml:space="preserve">Leicester</t>
   </si>
   <si>
-    <t xml:space="preserve">Portsmouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe </t>
+    <t xml:space="preserve">Portsmouth FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe Alexandra</t>
   </si>
   <si>
     <t xml:space="preserve">St Mirren FC</t>
   </si>
   <si>
-    <t xml:space="preserve">Arbroath FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spartans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liverpool</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middlesbrough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlisle United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansfield Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dundee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millwall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleetwood Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grimsby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Livingston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwich </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bristol Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC Wimbledon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plymouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swindon Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newcastle United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preston</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyton Orient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchester United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nottingham Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northampton Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranmere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rotherham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradford City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tottenham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield Wednesday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheltenham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doncaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Ham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolverhampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stoke City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burton Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wrexham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sunderland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wycombe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forest Green</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newport County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Port Vale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notts County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Bromwich Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wigan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walsall </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Birmingham City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alloa Athletic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blackburn Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolton Wanderers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greenock Morton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Falkirk FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clyde FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exeter City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibernian FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dunfermline Athletic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamilton Academical FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dumbarton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiff City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart of Midlothian FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens Park FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queen of The South FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">East Fife FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coventry City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ross County FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick Thistle FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stirling Albion FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elgin City FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherwell FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raith Rovers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelty Hearts FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forfar Athletic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterborough United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Johnstone FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness Caledonian Thistle FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cove Rangers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterhead FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ipswich Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrewsbury Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kilmarnock FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airdrieonians FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montrose FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayr United FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh City FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stranraer FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe Alexandra</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spartans FC</t>
   </si>
   <si>
@@ -697,381 +707,384 @@
     <t xml:space="preserve">Walsall FC</t>
   </si>
   <si>
+    <t xml:space="preserve">Accrington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MK Dons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumbarton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart of Midlothian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coventry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambridge Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morecambe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick Thistle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elgin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motherwell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raith Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forfar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crawley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Johnstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inverness Caledonian Thistle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillingham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrie Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stenhousemuir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevenage </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portsmouth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbroath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlisle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mansfield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fleetwood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swindon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colchester</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northampton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lincoln</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Brom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walsall</t>
+  </si>
+  <si>
     <t xml:space="preserve">Alloa Athletic</t>
   </si>
   <si>
-    <t xml:space="preserve">Bonnyrig Rose Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accrington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MK Dons</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dunfermline Athletic</t>
   </si>
   <si>
-    <t xml:space="preserve">Hamilton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dumbarton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heart of Midlothian</t>
+    <t xml:space="preserve">Cardiff City </t>
   </si>
   <si>
     <t xml:space="preserve">Queen of the South</t>
   </si>
   <si>
-    <t xml:space="preserve">Coventry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambridge Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morecambe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick Thistle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motherwell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raith Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crawley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Johnstone</t>
+    <t xml:space="preserve">Coventry City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huddersfield Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charlton Athletic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough United </t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Johnstone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Mirren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luton Town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Derby County </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tottenham Hotspur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham United</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea City  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arsenal FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rangers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AFC Bournemouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibernian Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brentford FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighton &amp; Hove Albion FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burnley FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelty Hearts F.c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelsea FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC St Johnstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aberdeen FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulham FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liverpool FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Dundee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tranmere Rovers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southampton FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stockport County</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watford FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasgow Rangers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gillingham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crewe Alexandra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newport County AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutton Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dundee Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonnyrigg Rose Athletic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Queens Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barrow A.F.C. </t>
   </si>
   <si>
     <t xml:space="preserve">Inverness CT</t>
   </si>
   <si>
-    <t xml:space="preserve">Cove Rangers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gillingham </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stenhousemuir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevenage </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portsmouth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Mirren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbroath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlisle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mansfield</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fleetwood</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Derby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swindon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northampton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lincoln</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Brom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walsall</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cardiff City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coventry City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huddersfield Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charlton Athletic </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peterborough United </t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Johnstone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gillingham</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leicester City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Mirren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luton Town</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwich City </t>
+    <t xml:space="preserve">Shrewsbury </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC Edinburgh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arbroth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man Utd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nottm Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheff Utd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bradford City AFC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheff Wed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolverhampton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wycombe Wanderers FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celtic Glasgow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton Academical FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamilton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peterborough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Johnstone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Airdrie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leeds Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stevenage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ayr Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlisle Utd</t>
   </si>
   <si>
     <t xml:space="preserve">Wimbledon</t>
   </si>
   <si>
-    <t xml:space="preserve">Derby County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tranmere Rovers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Ham United</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stockport County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolverhampton Wanderers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea City  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arsenal FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rangers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AFC Bournemouth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hibernian Edinburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brentford FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighton &amp; Hove Albion FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burnley FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelty Hearts F.c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chelsea FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC St Johnstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inverness Caledonian Thistle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aberdeen FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulham FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liverpool FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC Dundee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norwich City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preston North End FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southampton FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swansea City </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watford FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sutton Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dundee Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bonnyrigg Rose Athletic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Queens Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barrow A.F.C. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shrewsbury </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC Edinburgh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crewe Alexandra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arbroth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Man Utd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nottm Forest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheff Utd </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bradford City AFC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheff Wed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolverhampton </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wycombe Wanderers FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wigan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celtic Glasgow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasgow Rangers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton Academical FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamilton</t>
+    <t xml:space="preserve">Manchester Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colchester Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheffield Weds</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamilton Academical</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salford City FC</t>
   </si>
   <si>
     <t xml:space="preserve">Queen of The South</t>
   </si>
   <si>
-    <t xml:space="preserve">Peterborough</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Johnstone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Airdrie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leeds Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stevenage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayr Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlisle Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manchester Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newcastle Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colchester Utd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheffield Weds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salford City FC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fleetwood Town </t>
   </si>
   <si>
@@ -1096,9 +1109,6 @@
     <t xml:space="preserve">Queen`s Park</t>
   </si>
   <si>
-    <t xml:space="preserve">Queen of South</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kilmarnock Killie</t>
   </si>
   <si>
@@ -1150,9 +1160,6 @@
     <t xml:space="preserve">Forfar Athletic </t>
   </si>
   <si>
-    <t xml:space="preserve">Airdrie Utd</t>
-  </si>
-  <si>
     <t xml:space="preserve">Crewe Alexandra FC</t>
   </si>
   <si>
@@ -1166,9 +1173,6 @@
   </si>
   <si>
     <t xml:space="preserve">Port Vale FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brighton and Hove Albion</t>
   </si>
   <si>
     <t xml:space="preserve">Mansfield </t>
@@ -1259,12 +1263,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1291,7 +1291,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1311,18 +1311,19 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,25 +1363,25 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1400,7 +1401,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -1423,19 +1424,19 @@
         <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>223</v>
+        <v>149</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>333</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>32</v>
@@ -1455,16 +1456,16 @@
         <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>344</v>
+        <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>332</v>
+        <v>39</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>40</v>
@@ -1475,22 +1476,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -1507,10 +1508,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>236</v>
@@ -1539,16 +1540,16 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>335</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>63</v>
@@ -1565,25 +1566,25 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>336</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1594,10 +1595,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>74</v>
+        <v>337</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
@@ -1606,7 +1607,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>78</v>
+        <v>339</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>79</v>
@@ -1623,22 +1624,22 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>251</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1652,13 +1653,13 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>252</v>
+        <v>340</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1666,16 +1667,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -1689,13 +1690,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>101</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1703,13 +1704,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -1720,16 +1721,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>106</v>
+        <v>343</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1740,13 +1741,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,10 +1755,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>347</v>
+        <v>207</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -1774,13 +1775,13 @@
         <v>118</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1794,10 +1795,10 @@
         <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1805,7 +1806,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -1825,10 +1826,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1836,7 +1837,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>348</v>
+        <v>219</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -1864,13 +1865,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1895,14 +1896,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1942,7 +1944,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -1954,13 +1956,13 @@
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1980,7 +1982,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -1989,7 +1991,7 @@
         <v>23</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,28 +1999,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>149</v>
+        <v>225</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2035,19 +2037,19 @@
         <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>36</v>
+        <v>347</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>352</v>
+        <v>205</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2055,28 +2057,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,10 +2089,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>236</v>
@@ -2105,7 +2107,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,22 +2121,22 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>334</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2145,16 +2147,16 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>354</v>
+        <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>70</v>
@@ -2163,7 +2165,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2177,10 +2179,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>355</v>
+        <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>77</v>
@@ -2192,7 +2194,7 @@
         <v>79</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2203,22 +2205,22 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2232,13 +2234,13 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>253</v>
+        <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>356</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2246,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -2269,7 +2271,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -2283,16 +2285,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2303,13 +2305,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2320,13 +2322,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>357</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,10 +2336,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -2351,7 +2353,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
@@ -2360,7 +2362,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>121</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2368,7 +2370,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -2377,7 +2379,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2385,7 +2387,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>285</v>
+        <v>213</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -2405,10 +2407,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2416,7 +2418,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -2444,13 +2446,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2475,16 +2477,14 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2524,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -2536,10 +2536,10 @@
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -2556,22 +2556,22 @@
         <v>144</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>359</v>
+        <v>23</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,28 +2579,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>353</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>354</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2620,16 +2620,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>229</v>
+        <v>355</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>362</v>
+        <v>39</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2637,28 +2637,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2669,10 +2669,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>236</v>
@@ -2687,7 +2687,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2701,22 +2701,22 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>241</v>
+        <v>335</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>363</v>
+        <v>62</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>63</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2727,16 +2727,16 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>70</v>
@@ -2745,7 +2745,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>364</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2759,10 +2759,10 @@
         <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>77</v>
@@ -2771,10 +2771,10 @@
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2785,22 +2785,22 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>248</v>
+        <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>276</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2817,10 +2817,10 @@
         <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>91</v>
+        <v>254</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>92</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2828,16 +2828,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -2851,13 +2851,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,16 +2865,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2885,13 +2885,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2902,13 +2902,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>360</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,10 +2916,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -2933,16 +2933,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,7 +2950,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -2959,7 +2959,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2967,7 +2967,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -2987,10 +2987,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,7 +2998,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -3029,10 +3029,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3057,15 +3057,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21"/>
   </cols>
   <sheetData>
@@ -3103,25 +3103,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>287</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>142</v>
+        <v>361</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>365</v>
+        <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>288</v>
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -3144,16 +3144,16 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>147</v>
+        <v>362</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,28 +3161,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>366</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>31</v>
+        <v>364</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,13 +3190,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>266</v>
+        <v>154</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>36</v>
@@ -3205,13 +3205,13 @@
         <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>156</v>
+        <v>205</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>157</v>
+        <v>365</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,22 +3219,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>368</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -3248,28 +3248,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>369</v>
+        <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>295</v>
+        <v>55</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>370</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,28 +3277,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,25 +3309,25 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>371</v>
+        <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>72</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,22 +3341,22 @@
         <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,25 +3364,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>184</v>
+        <v>250</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>373</v>
+        <v>277</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>252</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3390,19 +3390,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>302</v>
+        <v>88</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>339</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,19 +3410,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,13 +3433,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3447,13 +3447,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>102</v>
+        <v>350</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -3467,7 +3467,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -3484,13 +3484,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>203</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3498,13 +3498,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>374</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -3515,16 +3515,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,7 +3532,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -3541,7 +3541,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,7 +3549,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -3558,7 +3558,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>375</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,13 +3566,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3580,7 +3580,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -3597,7 +3597,7 @@
         <v>136</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>376</v>
+        <v>137</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>138</v>
@@ -3611,10 +3611,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3639,15 +3639,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21"/>
   </cols>
   <sheetData>
@@ -3685,25 +3685,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>286</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -3726,16 +3726,16 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>287</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>359</v>
+        <v>147</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3743,28 +3743,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>369</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>361</v>
+        <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,13 +3772,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>370</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>36</v>
@@ -3787,13 +3787,13 @@
         <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>362</v>
+        <v>157</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3801,22 +3801,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>371</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>234</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -3830,28 +3830,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>236</v>
+        <v>372</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>56</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3859,28 +3859,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3891,25 +3891,25 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>364</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3923,22 +3923,22 @@
         <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>274</v>
+        <v>79</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3946,25 +3946,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>248</v>
+        <v>186</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>374</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>276</v>
+        <v>375</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3972,19 +3972,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>340</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,19 +3992,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>345</v>
+        <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,13 +4015,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4029,13 +4029,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>346</v>
+        <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -4049,7 +4049,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -4066,13 +4066,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>281</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,13 +4080,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>347</v>
+        <v>207</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>376</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -4097,16 +4097,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -4123,7 +4123,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4131,7 +4131,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -4140,7 +4140,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>129</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,13 +4148,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4162,7 +4162,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -4179,7 +4179,7 @@
         <v>136</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>137</v>
+        <v>378</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>138</v>
@@ -4193,10 +4193,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4221,14 +4221,16 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4268,7 +4270,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>142</v>
+        <v>361</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
@@ -4278,6 +4280,15 @@
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,6 +4310,15 @@
       <c r="F3" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="G3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -4311,13 +4331,22 @@
         <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>149</v>
+        <v>363</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>29</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4337,7 +4366,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>229</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>365</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,19 +4383,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>377</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>231</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,16 +4415,25 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>236</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>237</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4391,13 +4447,22 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>334</v>
+        <v>242</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,16 +4473,25 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,13 +4505,22 @@
         <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>77</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,16 +4531,22 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>83</v>
+        <v>250</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>318</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>250</v>
+        <v>277</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4471,10 +4560,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>378</v>
+        <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>92</v>
@@ -4485,16 +4574,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -4508,13 +4597,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>194</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,16 +4611,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4631,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -4559,13 +4648,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4573,10 +4662,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -4590,16 +4679,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>379</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,7 +4696,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -4616,7 +4705,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>125</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +4713,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -4644,10 +4733,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,7 +4744,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -4683,13 +4772,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4803,500 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
@@ -4769,16 +5351,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -4798,7 +5380,7 @@
         <v>145</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
@@ -4818,7 +5400,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -4847,7 +5429,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>228</v>
@@ -4862,10 +5444,10 @@
         <v>155</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>158</v>
@@ -4876,10 +5458,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -4891,10 +5473,10 @@
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>48</v>
@@ -4905,16 +5487,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>237</v>
@@ -4923,10 +5505,10 @@
         <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,22 +5522,22 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,13 +5545,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>68</v>
@@ -4978,7 +5560,7 @@
         <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>71</v>
@@ -5007,13 +5589,13 @@
         <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,22 +5606,22 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,13 +5629,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
@@ -5067,16 +5649,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -5087,10 +5669,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -5104,16 +5686,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5124,13 +5706,13 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,10 +5726,10 @@
         <v>111</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5158,7 +5740,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -5181,7 +5763,7 @@
         <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,7 +5771,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -5198,7 +5780,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5206,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -5215,7 +5797,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,13 +5805,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5237,7 +5819,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -5251,7 +5833,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>137</v>
@@ -5265,13 +5847,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5292,11 +5874,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
@@ -5452,11 +6034,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -5877,7 +6459,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
@@ -6040,28 +6622,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6075,22 +6657,22 @@
         <v>50</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6104,22 +6686,22 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6130,22 +6712,22 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>72</v>
@@ -6171,13 +6753,13 @@
         <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6188,22 +6770,22 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,7 +6796,7 @@
         <v>88</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>90</v>
@@ -6223,7 +6805,7 @@
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6234,16 +6816,16 @@
         <v>93</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6251,16 +6833,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6268,13 +6850,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -6285,13 +6867,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>109</v>
@@ -6302,16 +6884,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6319,13 +6901,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -6342,10 +6924,10 @@
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6362,7 +6944,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6370,16 +6952,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,13 +6969,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,7 +6983,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -6429,13 +7011,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -6456,11 +7038,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
@@ -6524,10 +7106,10 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6544,13 +7126,13 @@
         <v>19</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>224</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>23</v>
@@ -6570,19 +7152,19 @@
         <v>26</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>227</v>
@@ -6611,7 +7193,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>40</v>
@@ -6622,28 +7204,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6672,7 +7254,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>56</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,22 +7265,22 @@
         <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>64</v>
@@ -6724,13 +7306,13 @@
         <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6741,10 +7323,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
@@ -6753,7 +7335,7 @@
         <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>79</v>
@@ -6770,19 +7352,19 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>82</v>
+        <v>185</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -6799,10 +7381,10 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>92</v>
@@ -6819,7 +7401,7 @@
         <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>96</v>
@@ -6833,10 +7415,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -6850,16 +7432,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>103</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6867,7 +7449,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>107</v>
@@ -6876,7 +7458,7 @@
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6890,7 +7472,7 @@
         <v>111</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>113</v>
@@ -6901,7 +7483,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>115</v>
@@ -6910,7 +7492,7 @@
         <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6918,7 +7500,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
@@ -6941,7 +7523,7 @@
         <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>125</v>
@@ -6952,13 +7534,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>129</v>
@@ -6975,7 +7557,7 @@
         <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6983,10 +7565,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>135</v>
@@ -7011,13 +7593,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>140</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7038,11 +7620,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
@@ -7105,7 +7687,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -7160,7 +7742,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
@@ -7177,7 +7759,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -7192,7 +7774,7 @@
         <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>40</v>
@@ -7203,16 +7785,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
@@ -7235,10 +7817,10 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>52</v>
@@ -7267,13 +7849,13 @@
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>62</v>
@@ -7293,13 +7875,13 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
@@ -7311,7 +7893,7 @@
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7325,7 +7907,7 @@
         <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
@@ -7337,7 +7919,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>80</v>
@@ -7351,19 +7933,19 @@
         <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -7394,7 +7976,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
@@ -7403,7 +7985,7 @@
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -7417,13 +7999,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7434,7 +8016,7 @@
         <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>280</v>
@@ -7451,7 +8033,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -7468,13 +8050,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>281</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7485,7 +8067,7 @@
         <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
@@ -7499,16 +8081,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7516,7 +8098,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
@@ -7525,7 +8107,7 @@
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7533,7 +8115,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -7553,10 +8135,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7564,7 +8146,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -7595,7 +8177,7 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>141</v>
@@ -7619,11 +8201,11 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27"/>
@@ -7669,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>142</v>
@@ -7681,7 +8263,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
@@ -7707,7 +8289,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>146</v>
@@ -7721,7 +8303,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -7733,10 +8315,10 @@
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
@@ -7747,10 +8329,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -7773,10 +8355,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>43</v>
@@ -7785,10 +8367,10 @@
         <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -7799,25 +8381,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7825,25 +8407,25 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>298</v>
+        <v>243</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7851,25 +8433,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G9" s="0" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7889,7 +8471,7 @@
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G10" s="0" t="s">
         <v>78</v>
@@ -7903,19 +8485,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="G11" s="0" t="s">
         <v>86</v>
@@ -7926,10 +8508,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>90</v>
@@ -7938,7 +8520,7 @@
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7946,19 +8528,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7969,7 +8551,7 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -7986,10 +8568,10 @@
         <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -8003,7 +8585,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>305</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
@@ -8020,13 +8602,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8037,10 +8619,10 @@
         <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -8051,16 +8633,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8068,16 +8650,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8085,7 +8667,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -8094,7 +8676,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8102,13 +8684,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8116,7 +8698,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -8130,7 +8712,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>137</v>
@@ -8147,10 +8729,10 @@
         <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -8175,17 +8757,15 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8222,28 +8802,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>287</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>142</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8254,16 +8834,16 @@
         <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>63</v>
+        <v>307</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>22</v>
@@ -8280,7 +8860,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -8295,13 +8875,13 @@
         <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>153</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8312,7 +8892,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>269</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -8321,13 +8901,13 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>229</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>313</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>40</v>
@@ -8338,22 +8918,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>42</v>
+        <v>271</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>232</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>233</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>314</v>
+        <v>46</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>47</v>
@@ -8370,13 +8950,13 @@
         <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>315</v>
+        <v>167</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>53</v>
@@ -8388,7 +8968,7 @@
         <v>55</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8399,10 +8979,10 @@
         <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>239</v>
+        <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>274</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
@@ -8411,7 +8991,7 @@
         <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>242</v>
+        <v>62</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>63</v>
@@ -8428,25 +9008,25 @@
         <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>316</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8457,10 +9037,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>246</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
@@ -8472,7 +9052,7 @@
         <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>80</v>
@@ -8492,13 +9072,13 @@
         <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>319</v>
+        <v>252</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>87</v>
@@ -8515,13 +9095,13 @@
         <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>252</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8529,7 +9109,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>94</v>
@@ -8538,7 +9118,7 @@
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>97</v>
@@ -8549,10 +9129,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -8566,16 +9146,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>103</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>256</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8583,16 +9163,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>257</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8600,16 +9180,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>321</v>
+        <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>258</v>
+        <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>113</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8617,16 +9197,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>322</v>
+        <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>323</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8634,16 +9214,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8651,16 +9231,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8668,10 +9248,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>128</v>
@@ -8688,10 +9268,10 @@
         <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>326</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8699,13 +9279,13 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8727,10 +9307,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>327</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>141</v>
@@ -8754,20 +9334,21 @@
   </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8804,28 +9385,28 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>312</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>14</v>
+        <v>313</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>143</v>
+        <v>267</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8836,25 +9417,25 @@
         <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>145</v>
+        <v>315</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>329</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8862,7 +9443,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>290</v>
+        <v>25</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -8874,13 +9455,13 @@
         <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>151</v>
+        <v>268</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>330</v>
+        <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>153</v>
@@ -8891,10 +9472,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>292</v>
+        <v>33</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>266</v>
+        <v>34</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -8903,16 +9484,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>155</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>156</v>
+        <v>316</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8920,28 +9501,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>267</v>
+        <v>159</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8949,28 +9530,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>294</v>
+        <v>49</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>166</v>
+        <v>318</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>168</v>
+        <v>238</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>169</v>
+        <v>55</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8978,28 +9559,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>296</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>171</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>172</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>173</v>
+        <v>319</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>175</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9007,28 +9588,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>320</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>68</v>
+        <v>309</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>178</v>
+        <v>69</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>180</v>
+        <v>71</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9039,25 +9620,25 @@
         <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>74</v>
+        <v>247</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>75</v>
+        <v>248</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>182</v>
+        <v>321</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9065,25 +9646,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>85</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>322</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,19 +9672,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>302</v>
+        <v>88</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9111,19 +9692,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>189</v>
+        <v>94</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>191</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9131,10 +9712,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
@@ -9148,16 +9729,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>102</v>
+        <v>323</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>105</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9165,16 +9746,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>200</v>
+        <v>108</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9182,16 +9763,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>110</v>
+        <v>324</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9199,16 +9780,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>114</v>
+        <v>325</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>205</v>
+        <v>115</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>117</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9216,16 +9797,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>119</v>
+        <v>327</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>120</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9233,16 +9814,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>283</v>
+        <v>122</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9250,16 +9831,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>127</v>
+        <v>214</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>212</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9267,13 +9848,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>213</v>
+        <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>214</v>
+        <v>329</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9281,7 +9862,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>307</v>
+        <v>219</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -9295,7 +9876,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>308</v>
+        <v>136</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>137</v>
@@ -9309,13 +9890,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>218</v>
+        <v>330</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -9337,19 +9918,19 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9386,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>285</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>142</v>
@@ -9395,16 +9976,16 @@
         <v>11</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>309</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>331</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>310</v>
+        <v>14</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>16</v>
@@ -9421,22 +10002,22 @@
         <v>144</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>21</v>
+        <v>307</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>146</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>23</v>
+        <v>147</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>24</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9444,7 +10025,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>25</v>
+        <v>288</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>26</v>
@@ -9453,19 +10034,19 @@
         <v>149</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9473,10 +10054,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>33</v>
+        <v>290</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>35</v>
@@ -9485,16 +10066,16 @@
         <v>36</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>313</v>
+        <v>156</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9505,25 +10086,25 @@
         <v>41</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>234</v>
+        <v>163</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9531,28 +10112,28 @@
         <v>5</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>235</v>
+        <v>166</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>238</v>
+        <v>169</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>56</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9560,28 +10141,28 @@
         <v>6</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>57</v>
+        <v>294</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>333</v>
+        <v>172</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9589,28 +10170,28 @@
         <v>7</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>65</v>
+        <v>296</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>335</v>
+        <v>180</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>71</v>
+        <v>181</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>245</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9621,25 +10202,25 @@
         <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>336</v>
+        <v>74</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>337</v>
+        <v>75</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>76</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>338</v>
+        <v>182</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>80</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9647,25 +10228,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>298</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>275</v>
+        <v>82</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>249</v>
+        <v>187</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>250</v>
+        <v>188</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9673,19 +10254,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>88</v>
+        <v>299</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>339</v>
+        <v>90</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>91</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>92</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9693,19 +10274,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>95</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9716,13 +10297,13 @@
         <v>98</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>193</v>
+        <v>301</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>100</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9730,13 +10311,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>340</v>
+        <v>102</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>105</v>
@@ -9747,16 +10328,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>341</v>
+        <v>106</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>107</v>
+        <v>202</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>342</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9767,13 +10348,13 @@
         <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>111</v>
+        <v>205</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>112</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,13 +10362,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>116</v>
+        <v>209</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>117</v>
@@ -9798,16 +10379,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>343</v>
+        <v>119</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9815,16 +10396,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>261</v>
+        <v>124</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9832,7 +10413,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>127</v>
@@ -9841,7 +10422,7 @@
         <v>128</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>129</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9849,13 +10430,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>130</v>
+        <v>216</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9863,7 +10444,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>216</v>
+        <v>305</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>134</v>
@@ -9877,7 +10458,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>136</v>
+        <v>306</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>137</v>
@@ -9891,13 +10472,13 @@
         <v>23</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>264</v>
+        <v>139</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
